--- a/Random Shops.xlsx
+++ b/Random Shops.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\PycharmProjects\pythonProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DECEB3F-458F-4B3F-B67A-2E8E4BD0AD6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8670"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Town Sheet" sheetId="13" r:id="rId1"/>
@@ -21,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Town Sheet'!$A$1:$Q$35</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2895,7 +2901,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3243,6 +3249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3273,7 +3280,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
@@ -3867,29 +3873,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:H19" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A9:H19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A9:H19" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A9:H19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Shop"/>
-    <tableColumn id="2" name="First Name" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Shop"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="First Name" dataDxfId="28">
       <calculatedColumnFormula>INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Last Name" dataDxfId="27">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Last Name" dataDxfId="27">
       <calculatedColumnFormula>INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Race" dataDxfId="26">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Race" dataDxfId="26">
       <calculatedColumnFormula>INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Age" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Age" dataDxfId="25">
       <calculatedColumnFormula>INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Look" dataDxfId="24">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Look" dataDxfId="24">
       <calculatedColumnFormula>INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Trait" dataDxfId="23">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Trait" dataDxfId="23">
       <calculatedColumnFormula>INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Trait2" dataDxfId="22">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Trait2" dataDxfId="22">
       <calculatedColumnFormula>INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3898,16 +3904,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="J15:L27" totalsRowShown="0">
-  <autoFilter ref="J15:L27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="J15:L27" totalsRowShown="0">
+  <autoFilter ref="J15:L27" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Alchemist" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Alchemist" dataDxfId="21">
       <calculatedColumnFormula>VLOOKUP((I16),Potions!A:E,3,TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Cost" dataDxfId="20">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cost" dataDxfId="20">
       <calculatedColumnFormula>PRODUCT(VLOOKUP((I16),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Column1" dataDxfId="19">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column1" dataDxfId="19">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(MagicWeapons!A:A&lt;&gt;""),MagicWeapons!A:A)),MagicWeapons!A:C,1,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3916,16 +3922,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="J2:L8" totalsRowShown="0">
-  <autoFilter ref="J2:L8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="J2:L8" totalsRowShown="0">
+  <autoFilter ref="J2:L8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Blacksmith" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Blacksmith" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP((I3),Blacksmith!A:E,3,TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Cost" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Cost" dataDxfId="17">
       <calculatedColumnFormula>PRODUCT(VLOOKUP((I3),Blacksmith!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="INV#" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="INV#" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Jeweler!A:A&lt;&gt;""),Jeweler!A:A)),Jeweler!A:C,1,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3934,16 +3940,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="M2:O8" totalsRowShown="0">
-  <autoFilter ref="M2:O8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table6" displayName="Table6" ref="M2:O8" totalsRowShown="0">
+  <autoFilter ref="M2:O8" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Jeweler" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Jeweler" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP((L3),Jeweler!A:C,3,TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Cost" dataDxfId="14">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Cost" dataDxfId="14">
       <calculatedColumnFormula>PRODUCT(VLOOKUP((L3),Jeweler!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Column1" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Column1" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Enchanter!A:A&lt;&gt;""),Enchanter!A:A)),Enchanter!A:C,1,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3952,13 +3958,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="P2:Q8" totalsRowShown="0">
-  <autoFilter ref="P2:Q8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="P2:Q8" totalsRowShown="0">
+  <autoFilter ref="P2:Q8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Magic Items" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Magic Items" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP((O3),Enchanter!A:C,3,TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Cost" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Cost" dataDxfId="11">
       <calculatedColumnFormula>PRODUCT(VLOOKUP((O3),Enchanter!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3967,13 +3973,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="M15:N21" totalsRowShown="0">
-  <autoFilter ref="M15:N21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table8" displayName="Table8" ref="M15:N21" totalsRowShown="0">
+  <autoFilter ref="M15:N21" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Magic Arms" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Magic Arms" dataDxfId="10">
       <calculatedColumnFormula>VLOOKUP((L16),MagicWeapons!A:C,3,TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Cost" dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Cost" dataDxfId="9">
       <calculatedColumnFormula>PRODUCT(VLOOKUP((L16),MagicWeapons!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3982,10 +3988,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="I2:I8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="I2:I8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="I2:I8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="I2:I8" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="INV#" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="INV#" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Blacksmith!A:A&lt;&gt;""),Blacksmith!A:A)),Blacksmith!A:C,1,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3994,10 +4000,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="I15:I27" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="I15:I27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table11" displayName="Table11" ref="I15:I27" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="I15:I27" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="INV#" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="INV#" dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4006,18 +4012,18 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D291" totalsRowShown="0">
-  <autoFilter ref="A1:D291"/>
-  <sortState ref="A2:D291">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table3" displayName="Table3" ref="A1:D291" totalsRowShown="0">
+  <autoFilter ref="A1:D291" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D291">
     <sortCondition descending="1" ref="B1:B291"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Cumulative">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Cumulative">
       <calculatedColumnFormula>+A1+B1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Weighting"/>
-    <tableColumn id="3" name="Item" dataDxfId="1"/>
-    <tableColumn id="4" name="Cost" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Weighting"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Item" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Cost" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4312,77 +4318,77 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="59" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="0.140625" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" customWidth="1"/>
-    <col min="12" max="12" width="0.42578125" customWidth="1"/>
-    <col min="13" max="13" width="33.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="0.28515625" customWidth="1"/>
-    <col min="16" max="16" width="44.42578125" customWidth="1"/>
+    <col min="9" max="9" width="0.1796875" customWidth="1"/>
+    <col min="10" max="10" width="42.81640625" customWidth="1"/>
+    <col min="11" max="11" width="8.54296875" customWidth="1"/>
+    <col min="12" max="12" width="0.453125" customWidth="1"/>
+    <col min="13" max="13" width="33.7265625" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" customWidth="1"/>
+    <col min="15" max="15" width="0.26953125" customWidth="1"/>
+    <col min="16" max="16" width="44.453125" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
     <col min="18" max="18" width="33" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
         <v>886</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>919</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B2" s="20" t="str">
         <f ca="1">INDEX(ShopNames!A:A,RANDBETWEEN(2,COUNTA(ShopNames!A:A))&amp;" ")</f>
-        <v>Val'haren's</v>
+        <v>Slatestriker's</v>
       </c>
       <c r="C2" s="20" t="str">
         <f ca="1">INDEX(ShopNames!B:B,RANDBETWEEN(2,COUNTA(ShopNames!B:B))&amp;" ")</f>
-        <v>Flagon</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+        <v>Alehouse</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="22" t="s">
         <v>927</v>
       </c>
@@ -4411,323 +4417,323 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="20" t="str">
         <f ca="1">INDEX(ShopNames!C:C,RANDBETWEEN(2,COUNTA(ShopNames!C:C))&amp;" ")</f>
-        <v>Fernshaper's</v>
+        <v>The Griffon's</v>
       </c>
       <c r="C3" s="20" t="str">
         <f ca="1">INDEX(ShopNames!D:D,RANDBETWEEN(2,COUNTA(ShopNames!D:D))&amp;" ")</f>
-        <v>Beakers</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+        <v>Potions</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Blacksmith!A:A&lt;&gt;""),Blacksmith!A:A)),Blacksmith!A:C,1,TRUE)</f>
-        <v>0</v>
+        <v>59900</v>
       </c>
       <c r="J3" s="18" t="str">
         <f ca="1">VLOOKUP((I3),Blacksmith!A:E,3,TRUE)</f>
-        <v>No Armor In Stock</v>
+        <v>Mace of Disruption</v>
       </c>
       <c r="K3">
         <f ca="1">PRODUCT(VLOOKUP((I3),Blacksmith!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>0</v>
+        <v>6640</v>
       </c>
       <c r="L3" s="26">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Jeweler!A:A&lt;&gt;""),Jeweler!A:A)),Jeweler!A:C,1,TRUE)</f>
-        <v>16700</v>
+        <v>6200</v>
       </c>
       <c r="M3" s="18" t="str">
         <f ca="1">VLOOKUP((L3),Jeweler!A:C,3,TRUE)</f>
-        <v>Ring of Shooting Stars</v>
+        <v>Ring of Mind Shielding</v>
       </c>
       <c r="N3">
         <f ca="1">PRODUCT(VLOOKUP((L3),Jeweler!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>11480</v>
+        <v>16480</v>
       </c>
       <c r="O3">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Enchanter!A:A&lt;&gt;""),Enchanter!A:A)),Enchanter!A:C,1,TRUE)</f>
-        <v>37000</v>
+        <v>75500</v>
       </c>
       <c r="P3" s="18" t="str">
         <f ca="1">VLOOKUP((O3),Enchanter!A:C,3,TRUE)</f>
-        <v>Instrument of the Bards, Doss Lute</v>
+        <v>Ioun Stone, Awareness</v>
       </c>
       <c r="Q3">
         <f ca="1">PRODUCT(VLOOKUP((O3),Enchanter!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>33915</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B4" s="20" t="str">
         <f ca="1">INDEX(ShopNames!E:E,RANDBETWEEN(2,COUNTA(ShopNames!E:E))&amp;" ")</f>
-        <v>High Pressure</v>
+        <v>Eolwynn's</v>
       </c>
       <c r="C4" s="20" t="str">
         <f ca="1">INDEX(ShopNames!F:F,RANDBETWEEN(2,COUNTA(ShopNames!F:F))&amp;" ")</f>
-        <v>Arsenal</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+        <v>Leather and Chain</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Blacksmith!A:A&lt;&gt;""),Blacksmith!A:A)),Blacksmith!A:C,1,TRUE)</f>
-        <v>54900</v>
+        <v>26000</v>
       </c>
       <c r="J4" s="18" t="str">
         <f ca="1">VLOOKUP((I4),Blacksmith!A:E,3,TRUE)</f>
-        <v>Berserker Axe</v>
+        <v>Sentinel Shield</v>
       </c>
       <c r="K4">
         <f ca="1">PRODUCT(VLOOKUP((I4),Blacksmith!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>5250</v>
+        <v>19600</v>
       </c>
       <c r="L4" s="26">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Jeweler!A:A&lt;&gt;""),Jeweler!A:A)),Jeweler!A:C,1,TRUE)</f>
-        <v>15200</v>
+        <v>7400</v>
       </c>
       <c r="M4" s="18" t="str">
         <f ca="1">VLOOKUP((L4),Jeweler!A:C,3,TRUE)</f>
-        <v>Ring of X-ray Vision</v>
+        <v>Ring of Swimming</v>
       </c>
       <c r="N4">
         <f ca="1">PRODUCT(VLOOKUP((L4),Jeweler!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>5220</v>
+        <v>2400</v>
       </c>
       <c r="O4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Enchanter!A:A&lt;&gt;""),Enchanter!A:A)),Enchanter!A:C,1,TRUE)</f>
-        <v>46000</v>
+        <v>31000</v>
       </c>
       <c r="P4" s="18" t="str">
         <f ca="1">VLOOKUP((O4),Enchanter!A:C,3,TRUE)</f>
-        <v>Periapt of Wound Closure</v>
+        <v>Gloves of Thievery</v>
       </c>
       <c r="Q4">
         <f ca="1">PRODUCT(VLOOKUP((O4),Enchanter!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>520</v>
       </c>
       <c r="B5" s="20" t="str">
         <f ca="1">INDEX(ShopNames!G:G,RANDBETWEEN(2,COUNTA(ShopNames!G:G))&amp;" ")</f>
-        <v>Rewalt's</v>
+        <v>Blindingly Bright</v>
       </c>
       <c r="C5" s="20" t="str">
         <f ca="1">INDEX(ShopNames!H:H,RANDBETWEEN(2,COUNTA(ShopNames!H:H))&amp;" ")</f>
-        <v>Amulets</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+        <v>Jewels</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Blacksmith!A:A&lt;&gt;""),Blacksmith!A:A)),Blacksmith!A:C,1,TRUE)</f>
-        <v>43900</v>
+        <v>0</v>
       </c>
       <c r="J5" s="18" t="str">
         <f ca="1">VLOOKUP((I5),Blacksmith!A:E,3,TRUE)</f>
-        <v>Javelin of Lightning</v>
+        <v>No Armor In Stock</v>
       </c>
       <c r="K5">
         <f ca="1">PRODUCT(VLOOKUP((I5),Blacksmith!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>1470</v>
+        <v>0</v>
       </c>
       <c r="L5" s="26">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Jeweler!A:A&lt;&gt;""),Jeweler!A:A)),Jeweler!A:C,1,TRUE)</f>
-        <v>7400</v>
+        <v>5000</v>
       </c>
       <c r="M5" s="18" t="str">
         <f ca="1">VLOOKUP((L5),Jeweler!A:C,3,TRUE)</f>
-        <v>Ring of Swimming</v>
+        <v>Ring of Jumping</v>
       </c>
       <c r="N5">
         <f ca="1">PRODUCT(VLOOKUP((L5),Jeweler!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>2760</v>
+        <v>2125</v>
       </c>
       <c r="O5">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Enchanter!A:A&lt;&gt;""),Enchanter!A:A)),Enchanter!A:C,1,TRUE)</f>
-        <v>61500</v>
+        <v>8000</v>
       </c>
       <c r="P5" s="18" t="str">
         <f ca="1">VLOOKUP((O5),Enchanter!A:C,3,TRUE)</f>
-        <v>Bowl of Commanding Water Elementals</v>
+        <v>Brooch of Shielding</v>
       </c>
       <c r="Q5">
         <f ca="1">PRODUCT(VLOOKUP((O5),Enchanter!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>7920</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>889</v>
       </c>
       <c r="B6" s="20" t="str">
         <f ca="1">INDEX(ShopNames!I:I,RANDBETWEEN(2,COUNTA(ShopNames!I:I))&amp;" ")</f>
-        <v>Elelror's</v>
+        <v>Celenwe's</v>
       </c>
       <c r="C6" s="20" t="str">
         <f ca="1">INDEX(ShopNames!J:J,RANDBETWEEN(2,COUNTA(ShopNames!J:J))&amp;" ")</f>
-        <v>Magnificence</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+        <v>Wizardry</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Blacksmith!A:A&lt;&gt;""),Blacksmith!A:A)),Blacksmith!A:C,1,TRUE)</f>
-        <v>0</v>
+        <v>64900</v>
       </c>
       <c r="J6" s="18" t="str">
         <f ca="1">VLOOKUP((I6),Blacksmith!A:E,3,TRUE)</f>
-        <v>No Armor In Stock</v>
+        <v>Sword of Wounding</v>
       </c>
       <c r="K6">
         <f ca="1">PRODUCT(VLOOKUP((I6),Blacksmith!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>0</v>
+        <v>2280.0000000000005</v>
       </c>
       <c r="L6" s="26">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Jeweler!A:A&lt;&gt;""),Jeweler!A:A)),Jeweler!A:C,1,TRUE)</f>
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="M6" s="18" t="str">
         <f ca="1">VLOOKUP((L6),Jeweler!A:C,3,TRUE)</f>
-        <v>Ring of Resistance</v>
+        <v>No Magic Rings</v>
       </c>
       <c r="N6">
         <f ca="1">PRODUCT(VLOOKUP((L6),Jeweler!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>6959.9999999999991</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Enchanter!A:A&lt;&gt;""),Enchanter!A:A)),Enchanter!A:C,1,TRUE)</f>
-        <v>77000</v>
+        <v>62000</v>
       </c>
       <c r="P6" s="18" t="str">
         <f ca="1">VLOOKUP((O6),Enchanter!A:C,3,TRUE)</f>
-        <v>Ioun Stone, Sustenance</v>
+        <v>Bracers of Defense</v>
       </c>
       <c r="Q6">
         <f ca="1">PRODUCT(VLOOKUP((O6),Enchanter!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>890</v>
       </c>
       <c r="B7" s="20" t="str">
         <f ca="1">INDEX(ShopNames!K:K,RANDBETWEEN(2,COUNTA(ShopNames!K:K))&amp;" ")</f>
-        <v>Ariel's</v>
+        <v>Anindis's</v>
       </c>
       <c r="C7" s="20" t="str">
         <f ca="1">INDEX(ShopNames!L:L,RANDBETWEEN(2,COUNTA(ShopNames!L:L))&amp;" ")</f>
-        <v>Wands</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+        <v>Staves</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Blacksmith!A:A&lt;&gt;""),Blacksmith!A:A)),Blacksmith!A:C,1,TRUE)</f>
-        <v>0</v>
+        <v>51900</v>
       </c>
       <c r="J7" s="18" t="str">
         <f ca="1">VLOOKUP((I7),Blacksmith!A:E,3,TRUE)</f>
-        <v>No Armor In Stock</v>
+        <v>Weapon, +1</v>
       </c>
       <c r="K7">
         <f ca="1">PRODUCT(VLOOKUP((I7),Blacksmith!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="L7" s="26">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Jeweler!A:A&lt;&gt;""),Jeweler!A:A)),Jeweler!A:C,1,TRUE)</f>
-        <v>12800</v>
+        <v>11000</v>
       </c>
       <c r="M7" s="18" t="str">
         <f ca="1">VLOOKUP((L7),Jeweler!A:C,3,TRUE)</f>
-        <v>Ring of Free Action</v>
+        <v>Ring of Animal Influence</v>
       </c>
       <c r="N7">
         <f ca="1">PRODUCT(VLOOKUP((L7),Jeweler!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>23600</v>
+        <v>4280</v>
       </c>
       <c r="O7">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Enchanter!A:A&lt;&gt;""),Enchanter!A:A)),Enchanter!A:C,1,TRUE)</f>
-        <v>84600</v>
+        <v>86000</v>
       </c>
       <c r="P7" s="18" t="str">
         <f ca="1">VLOOKUP((O7),Enchanter!A:C,3,TRUE)</f>
-        <v>Crystal Ball</v>
+        <v>Ioun Stone, Absorption</v>
       </c>
       <c r="Q7">
         <f ca="1">PRODUCT(VLOOKUP((O7),Enchanter!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Blacksmith!A:A&lt;&gt;""),Blacksmith!A:A)),Blacksmith!A:C,1,TRUE)</f>
-        <v>37000</v>
+        <v>53900</v>
       </c>
       <c r="J8" s="18" t="str">
         <f ca="1">VLOOKUP((I8),Blacksmith!A:E,3,TRUE)</f>
-        <v>Shield, +2</v>
+        <v>Ammuntion, +2</v>
       </c>
       <c r="K8">
         <f ca="1">PRODUCT(VLOOKUP((I8),Blacksmith!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>7020</v>
+        <v>107</v>
       </c>
       <c r="L8" s="26">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Jeweler!A:A&lt;&gt;""),Jeweler!A:A)),Jeweler!A:C,1,TRUE)</f>
-        <v>15800</v>
+        <v>7400</v>
       </c>
       <c r="M8" s="18" t="str">
         <f ca="1">VLOOKUP((L8),Jeweler!A:C,3,TRUE)</f>
-        <v>Ring of the Ram</v>
+        <v>Ring of Swimming</v>
       </c>
       <c r="N8">
         <f ca="1">PRODUCT(VLOOKUP((L8),Jeweler!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>5350</v>
+        <v>3420.0000000000005</v>
       </c>
       <c r="O8">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Enchanter!A:A&lt;&gt;""),Enchanter!A:A)),Enchanter!A:C,1,TRUE)</f>
-        <v>76500</v>
+        <v>39000</v>
       </c>
       <c r="P8" s="18" t="str">
         <f ca="1">VLOOKUP((O8),Enchanter!A:C,3,TRUE)</f>
-        <v>Ioun Stone, Reserve</v>
+        <v>Instrument of the Bards, Mac-Fuirmidh Cittern</v>
       </c>
       <c r="Q8">
         <f ca="1">PRODUCT(VLOOKUP((O8),Enchanter!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>5160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>887</v>
       </c>
@@ -4754,89 +4760,89 @@
       </c>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>911</v>
       </c>
       <c r="B10" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Cece</v>
+        <v>Makili</v>
       </c>
       <c r="C10" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Val'haren</v>
+        <v>Slatestriker</v>
       </c>
       <c r="D10" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Gnome</v>
+        <v>Halfling</v>
       </c>
       <c r="E10" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
-        <v>Child</v>
+        <v>Middle Aged</v>
       </c>
       <c r="F10" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Braided Beard Or Hair</v>
+        <v>Very muscular</v>
       </c>
       <c r="G10" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Jovial</v>
+        <v>Quiet</v>
       </c>
       <c r="H10" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>Terrible Negotiator</v>
+        <v>Fidget</v>
       </c>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Enelron</v>
+        <v>Thori</v>
       </c>
       <c r="C11" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Fernshaper</v>
+        <v>Flatgrip</v>
       </c>
       <c r="D11" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Elf</v>
+        <v>Gnome</v>
       </c>
       <c r="E11" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
-        <v>Middle Aged</v>
+        <v>Very Old</v>
       </c>
       <c r="F11" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Pale skin, red hair</v>
+        <v>Beautiful</v>
       </c>
       <c r="G11" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Argumentative</v>
+        <v>Friendly</v>
       </c>
       <c r="H11" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>Speak in Rhyme</v>
+        <v>CAN'T speak to women</v>
       </c>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>369</v>
       </c>
       <c r="B12" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Erehrt</v>
+        <v>Eolwynn</v>
       </c>
       <c r="C12" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Pyreblade</v>
+        <v>Hilltop</v>
       </c>
       <c r="D12" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Human</v>
+        <v>Half-Elf</v>
       </c>
       <c r="E12" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
@@ -4844,41 +4850,41 @@
       </c>
       <c r="F12" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Ashen Hair</v>
+        <v>Grey hair, scar on lip</v>
       </c>
       <c r="G12" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Tired</v>
-      </c>
-      <c r="H12" s="19">
+        <v>Ponderous</v>
+      </c>
+      <c r="H12" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>0</v>
+        <v>Hums</v>
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>520</v>
       </c>
       <c r="B13" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Rewalt</v>
+        <v>Wynna</v>
       </c>
       <c r="C13" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Seatail</v>
+        <v>Dustshot</v>
       </c>
       <c r="D13" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Halfling</v>
+        <v>Elf</v>
       </c>
       <c r="E13" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
-        <v>Old</v>
+        <v>Ancient</v>
       </c>
       <c r="F13" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Tattoos</v>
+        <v>Eye Twitch</v>
       </c>
       <c r="G13" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
@@ -4886,60 +4892,60 @@
       </c>
       <c r="H13" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>Speak in Rhyme</v>
+        <v>Tired</v>
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>889</v>
       </c>
       <c r="B14" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Elelror</v>
+        <v>Celenwe</v>
       </c>
       <c r="C14" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Embertalon</v>
+        <v>Bouldersun</v>
       </c>
       <c r="D14" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Half-Orc</v>
+        <v>Human</v>
       </c>
       <c r="E14" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
-        <v>Middle Aged</v>
+        <v>Very Old</v>
       </c>
       <c r="F14" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Formal Clothes</v>
+        <v>Distinctive Nose</v>
       </c>
       <c r="G14" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Intelligent</v>
+        <v>Jovial</v>
       </c>
       <c r="H14" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>CAN'T speak to women</v>
+        <v>Sucker for a Pretty Face</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>890</v>
       </c>
       <c r="B15" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Ariel</v>
+        <v>Anindis</v>
       </c>
       <c r="C15" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Lonespark</v>
+        <v>Proudfeather</v>
       </c>
       <c r="D15" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Human</v>
+        <v>Gnome</v>
       </c>
       <c r="E15" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
@@ -4947,15 +4953,15 @@
       </c>
       <c r="F15" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Jewelry (choker)</v>
+        <v>Long dark hair</v>
       </c>
       <c r="G15" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Kind</v>
+        <v>Curious</v>
       </c>
       <c r="H15" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>Use Long Words</v>
+        <v>Speaks in 3rd Person</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>927</v>
@@ -4979,518 +4985,518 @@
         <v>923</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>486</v>
       </c>
       <c r="B16" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Giles</v>
+        <v>Duri</v>
       </c>
       <c r="C16" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Val'haren</v>
+        <v>Tallcrag</v>
       </c>
       <c r="D16" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Drow</v>
+        <v>Halfling</v>
       </c>
       <c r="E16" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
-        <v>Young</v>
+        <v>Middle Aged</v>
       </c>
       <c r="F16" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Unusual Hair Color</v>
+        <v>Weird Posture</v>
       </c>
       <c r="G16" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Helpful</v>
+        <v>Friendly</v>
       </c>
       <c r="H16" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>Hums</v>
+        <v>Speaks in 3rd Person</v>
       </c>
       <c r="I16" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>20800</v>
+        <v>10300</v>
       </c>
       <c r="J16" s="18" t="str">
         <f ca="1">VLOOKUP((I16),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Superior Healing</v>
+        <v>Potion of Growth</v>
       </c>
       <c r="K16">
         <f ca="1">PRODUCT(VLOOKUP((I16),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>490.50000000000006</v>
+        <v>294.3</v>
       </c>
       <c r="L16">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(MagicWeapons!A:A&lt;&gt;""),MagicWeapons!A:A)),MagicWeapons!A:C,1,TRUE)</f>
-        <v>18000</v>
+        <v>7600</v>
       </c>
       <c r="M16" s="18" t="str">
         <f ca="1">VLOOKUP((L16),MagicWeapons!A:C,3,TRUE)</f>
-        <v>Tentacle Rod</v>
+        <v>Wand of Secrets</v>
       </c>
       <c r="N16">
         <f ca="1">PRODUCT(VLOOKUP((L16),MagicWeapons!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>4850</v>
+        <v>1739.9999999999998</v>
       </c>
       <c r="P16" s="21" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>912</v>
       </c>
       <c r="B17" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Odwyth</v>
+        <v>Ilmiriel</v>
       </c>
       <c r="C17" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Mourningstrength</v>
+        <v>Simpleflare</v>
       </c>
       <c r="D17" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Human</v>
+        <v>Elf</v>
       </c>
       <c r="E17" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
-        <v>Middle Aged</v>
+        <v>Very Old</v>
       </c>
       <c r="F17" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Eye Twitch</v>
+        <v>Tall, Thin, Attractive</v>
       </c>
       <c r="G17" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Ponderous</v>
+        <v>Curious</v>
       </c>
       <c r="H17" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>Optimistic</v>
+        <v>Friendly</v>
       </c>
       <c r="I17" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>22750</v>
+        <v>11300</v>
       </c>
       <c r="J17" s="18" t="str">
         <f ca="1">VLOOKUP((I17),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Supreme Healing</v>
+        <v>Potion of Hill Giant Strength</v>
       </c>
       <c r="K17">
         <f ca="1">PRODUCT(VLOOKUP((I17),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>1417.5</v>
+        <v>178</v>
       </c>
       <c r="L17">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(MagicWeapons!A:A&lt;&gt;""),MagicWeapons!A:A)),MagicWeapons!A:C,1,TRUE)</f>
-        <v>18000</v>
+        <v>9600</v>
       </c>
       <c r="M17" s="18" t="str">
         <f ca="1">VLOOKUP((L17),MagicWeapons!A:C,3,TRUE)</f>
-        <v>Tentacle Rod</v>
+        <v>Wand of the War Mage, +1</v>
       </c>
       <c r="N17">
         <f ca="1">PRODUCT(VLOOKUP((L17),MagicWeapons!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>5100</v>
+        <v>1056</v>
       </c>
       <c r="P17" s="21" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>913</v>
       </c>
       <c r="B18" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Swulfa</v>
+        <v>Oerwurg</v>
       </c>
       <c r="C18" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Hardshot</v>
+        <v>Flintwhirl</v>
       </c>
       <c r="D18" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Half-Orc</v>
+        <v>Elf</v>
       </c>
       <c r="E18" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
-        <v>Old</v>
+        <v>Middle Aged</v>
       </c>
       <c r="F18" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Unusual Hair Color</v>
+        <v>Braided Beard Or Hair</v>
       </c>
       <c r="G18" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Honest</v>
+        <v>Annoyed</v>
       </c>
       <c r="H18" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>Sucker for a Pretty Face</v>
+        <v>Squint</v>
       </c>
       <c r="I18" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>10300</v>
+        <v>8000</v>
       </c>
       <c r="J18" s="18" t="str">
         <f ca="1">VLOOKUP((I18),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Growth</v>
+        <v>Potion of Fire Breath</v>
       </c>
       <c r="K18">
         <f ca="1">PRODUCT(VLOOKUP((I18),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>272.7</v>
+        <v>177</v>
       </c>
       <c r="L18">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(MagicWeapons!A:A&lt;&gt;""),MagicWeapons!A:A)),MagicWeapons!A:C,1,TRUE)</f>
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M18" s="18" t="str">
         <f ca="1">VLOOKUP((L18),MagicWeapons!A:C,3,TRUE)</f>
-        <v>Immovable Rod</v>
+        <v>Rod of the Pact Keeper, +1</v>
       </c>
       <c r="N18">
         <f ca="1">PRODUCT(VLOOKUP((L18),MagicWeapons!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>4100</v>
+        <v>13559.999999999998</v>
       </c>
       <c r="P18" s="21" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>914</v>
       </c>
       <c r="B19" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Nimrime</v>
+        <v>Undim</v>
       </c>
       <c r="C19" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Mistrock</v>
+        <v>Rumblestride</v>
       </c>
       <c r="D19" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Dragonborn</v>
+        <v>Halfling</v>
       </c>
       <c r="E19" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
-        <v>Young</v>
+        <v>Middle Aged</v>
       </c>
       <c r="F19" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Ashen Hair</v>
+        <v>Unusual Hair Color</v>
       </c>
       <c r="G19" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Wise</v>
+        <v>Friendly</v>
       </c>
       <c r="H19" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>Uses Wrong Words</v>
+        <v>Squint</v>
       </c>
       <c r="I19" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>8000</v>
+        <v>16800</v>
       </c>
       <c r="J19" s="18" t="str">
         <f ca="1">VLOOKUP((I19),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Fire Breath</v>
+        <v>Potion of Diminution</v>
       </c>
       <c r="K19">
         <f ca="1">PRODUCT(VLOOKUP((I19),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>136.5</v>
+        <v>264.60000000000002</v>
       </c>
       <c r="L19">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(MagicWeapons!A:A&lt;&gt;""),MagicWeapons!A:A)),MagicWeapons!A:C,1,TRUE)</f>
-        <v>4500</v>
+        <v>18900</v>
       </c>
       <c r="M19" s="18" t="str">
         <f ca="1">VLOOKUP((L19),MagicWeapons!A:C,3,TRUE)</f>
-        <v>Staff of Fire</v>
+        <v>Rod of Security</v>
       </c>
       <c r="N19">
         <f ca="1">PRODUCT(VLOOKUP((L19),MagicWeapons!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>12960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I20" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>14300</v>
+        <v>9000</v>
       </c>
       <c r="J20" s="18" t="str">
         <f ca="1">VLOOKUP((I20),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Water Breathing</v>
+        <v>Potion of Greater Healing</v>
       </c>
       <c r="K20">
         <f ca="1">PRODUCT(VLOOKUP((I20),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>199.8</v>
+        <v>135</v>
       </c>
       <c r="L20">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(MagicWeapons!A:A&lt;&gt;""),MagicWeapons!A:A)),MagicWeapons!A:C,1,TRUE)</f>
-        <v>16000</v>
+        <v>6600</v>
       </c>
       <c r="M20" s="18" t="str">
         <f ca="1">VLOOKUP((L20),MagicWeapons!A:C,3,TRUE)</f>
-        <v>Rod of the Pact Keeper, +1</v>
+        <v>Wand of Magic Missiles</v>
       </c>
       <c r="N20">
         <f ca="1">PRODUCT(VLOOKUP((L20),MagicWeapons!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>13799.999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6560.0000000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I21" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>11300</v>
+        <v>9000</v>
       </c>
       <c r="J21" s="18" t="str">
         <f ca="1">VLOOKUP((I21),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Hill Giant Strength</v>
+        <v>Potion of Greater Healing</v>
       </c>
       <c r="K21">
         <f ca="1">PRODUCT(VLOOKUP((I21),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>224.00000000000003</v>
+        <v>145.5</v>
       </c>
       <c r="L21">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(MagicWeapons!A:A&lt;&gt;""),MagicWeapons!A:A)),MagicWeapons!A:C,1,TRUE)</f>
-        <v>11600</v>
+        <v>5600</v>
       </c>
       <c r="M21" s="25" t="str">
         <f ca="1">VLOOKUP((L21),MagicWeapons!A:C,3,TRUE)</f>
-        <v>Wand of Fear</v>
+        <v>Wand of Magic Detection</v>
       </c>
       <c r="N21">
         <f ca="1">PRODUCT(VLOOKUP((L21),MagicWeapons!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1680.0000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>920</v>
       </c>
       <c r="I22" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J22" s="18" t="str">
         <f ca="1">VLOOKUP((I22),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Healing</v>
+        <v>Potion of Greater Healing</v>
       </c>
       <c r="K22">
         <f ca="1">PRODUCT(VLOOKUP((I22),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>59.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+        <v>166.50000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="40" t="s">
         <v>921</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39" t="s">
+      <c r="B23" s="40"/>
+      <c r="C23" s="40" t="s">
         <v>922</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="39" t="s">
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="40" t="s">
         <v>931</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
       <c r="I23" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="J23" s="18" t="str">
         <f ca="1">VLOOKUP((I23),Potions!A:E,3,TRUE)</f>
-        <v>Oil of Slipperiness</v>
+        <v>Potion of Healing</v>
       </c>
       <c r="K23">
         <f ca="1">PRODUCT(VLOOKUP((I23),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>398.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="J24" s="18" t="str">
         <f ca="1">VLOOKUP((I24),Potions!A:E,3,TRUE)</f>
-        <v>Oil of Slipperiness</v>
+        <v>Potion of Healing</v>
       </c>
       <c r="K24">
         <f ca="1">PRODUCT(VLOOKUP((I24),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>513.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>19300</v>
+        <v>13300</v>
       </c>
       <c r="J25" s="18" t="str">
         <f ca="1">VLOOKUP((I25),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Invulnerability</v>
+        <v>Potion of Resistance</v>
       </c>
       <c r="K25">
         <f ca="1">PRODUCT(VLOOKUP((I25),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>3132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J26" s="18" t="str">
         <f ca="1">VLOOKUP((I26),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Healing</v>
+        <v>Potion of Climbing</v>
       </c>
       <c r="K26">
         <f ca="1">PRODUCT(VLOOKUP((I26),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>0</v>
+        <v>23250</v>
       </c>
       <c r="J27" s="18" t="str">
         <f ca="1">VLOOKUP((I27),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Climbing</v>
+        <v>Potion of Storm Giant Strength</v>
       </c>
       <c r="K27">
         <f ca="1">PRODUCT(VLOOKUP((I27),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-    </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
@@ -5500,9 +5506,9 @@
     <mergeCell ref="F23:H35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="P16" r:id="rId1" location="Armor&amp;section-id={7DA77967-9A0E-408A-B18F-5624CA1223BD}&amp;page-id={6F80A50E-1966-4BD1-986E-8CBCDE2F5A40}&amp;end"/>
-    <hyperlink ref="P17" r:id="rId2" location="Equipment&amp;section-id={7DA77967-9A0E-408A-B18F-5624CA1223BD}&amp;page-id={41A613C2-8346-4675-957F-6DAA8C321CD5}&amp;end"/>
-    <hyperlink ref="P18" r:id="rId3" location="Spellcasting%20Services&amp;section-id={7DA77967-9A0E-408A-B18F-5624CA1223BD}&amp;page-id={E0F06FA4-1744-4AB9-872F-8A7D6938F1A6}&amp;end"/>
+    <hyperlink ref="P16" r:id="rId1" location="Armor&amp;section-id={7DA77967-9A0E-408A-B18F-5624CA1223BD}&amp;page-id={6F80A50E-1966-4BD1-986E-8CBCDE2F5A40}&amp;end" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="P17" r:id="rId2" location="Equipment&amp;section-id={7DA77967-9A0E-408A-B18F-5624CA1223BD}&amp;page-id={41A613C2-8346-4675-957F-6DAA8C321CD5}&amp;end" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="P18" r:id="rId3" location="Spellcasting%20Services&amp;section-id={7DA77967-9A0E-408A-B18F-5624CA1223BD}&amp;page-id={E0F06FA4-1744-4AB9-872F-8A7D6938F1A6}&amp;end" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="landscape" r:id="rId4"/>
@@ -5523,22 +5529,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D291"/>
   <sheetViews>
     <sheetView topLeftCell="A266" workbookViewId="0">
       <selection activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>768</v>
       </c>
@@ -5552,7 +5558,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5566,7 +5572,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">+A2+B2</f>
         <v>2000</v>
@@ -5581,7 +5587,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>4000</v>
@@ -5596,7 +5602,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -5611,7 +5617,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -5626,7 +5632,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -5641,7 +5647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>12000</v>
@@ -5656,7 +5662,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>14000</v>
@@ -5671,7 +5677,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>16000</v>
@@ -5686,7 +5692,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>18000</v>
@@ -5701,7 +5707,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>20000</v>
@@ -5716,7 +5722,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>22000</v>
@@ -5731,7 +5737,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>23200</v>
@@ -5746,7 +5752,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>24400</v>
@@ -5761,7 +5767,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>25600</v>
@@ -5776,7 +5782,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>26800</v>
@@ -5791,7 +5797,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>28000</v>
@@ -5806,7 +5812,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>29000</v>
@@ -5821,7 +5827,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>30000</v>
@@ -5836,7 +5842,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>31000</v>
@@ -5851,7 +5857,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>32000</v>
@@ -5866,7 +5872,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>33000</v>
@@ -5881,7 +5887,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>34000</v>
@@ -5896,7 +5902,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>35000</v>
@@ -5911,7 +5917,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>36000</v>
@@ -5926,7 +5932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>37000</v>
@@ -5941,7 +5947,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>38000</v>
@@ -5956,7 +5962,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>39000</v>
@@ -5971,7 +5977,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>40000</v>
@@ -5986,7 +5992,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>41000</v>
@@ -6001,7 +6007,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>42000</v>
@@ -6016,7 +6022,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>43000</v>
@@ -6031,7 +6037,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>44000</v>
@@ -6046,7 +6052,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>45000</v>
@@ -6061,7 +6067,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>46000</v>
@@ -6076,7 +6082,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>47000</v>
@@ -6091,7 +6097,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>48000</v>
@@ -6106,7 +6112,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>49000</v>
@@ -6121,7 +6127,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>50000</v>
@@ -6136,7 +6142,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -6151,7 +6157,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>52000</v>
@@ -6166,7 +6172,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>53000</v>
@@ -6179,7 +6185,7 @@
       </c>
       <c r="D43" s="15"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>54000</v>
@@ -6194,7 +6200,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>55000</v>
@@ -6209,7 +6215,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>56000</v>
@@ -6224,7 +6230,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>57000</v>
@@ -6239,7 +6245,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>58000</v>
@@ -6254,7 +6260,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -6269,7 +6275,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>60000</v>
@@ -6284,7 +6290,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>61000</v>
@@ -6299,7 +6305,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>62000</v>
@@ -6314,7 +6320,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>63000</v>
@@ -6329,7 +6335,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>64000</v>
@@ -6344,7 +6350,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>65000</v>
@@ -6359,7 +6365,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>66000</v>
@@ -6374,7 +6380,7 @@
         <v>6120</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>67000</v>
@@ -6389,7 +6395,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>68000</v>
@@ -6404,7 +6410,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>69000</v>
@@ -6419,7 +6425,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>70000</v>
@@ -6434,7 +6440,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>71000</v>
@@ -6449,7 +6455,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>72000</v>
@@ -6464,7 +6470,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>73000</v>
@@ -6479,7 +6485,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>74000</v>
@@ -6494,7 +6500,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>75000</v>
@@ -6509,7 +6515,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>76000</v>
@@ -6524,7 +6530,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67">
         <f t="shared" ref="A67:A130" si="1">+A66+B66</f>
         <v>77000</v>
@@ -6539,7 +6545,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>78000</v>
@@ -6554,7 +6560,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>79000</v>
@@ -6569,7 +6575,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>80000</v>
@@ -6584,7 +6590,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>81000</v>
@@ -6599,7 +6605,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>82000</v>
@@ -6614,7 +6620,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>83000</v>
@@ -6629,7 +6635,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>84000</v>
@@ -6644,7 +6650,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>85000</v>
@@ -6659,7 +6665,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>86000</v>
@@ -6674,7 +6680,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>87000</v>
@@ -6689,7 +6695,7 @@
         <v>28500</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>88000</v>
@@ -6704,7 +6710,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>89000</v>
@@ -6719,7 +6725,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>90000</v>
@@ -6734,7 +6740,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>91000</v>
@@ -6749,7 +6755,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>92000</v>
@@ -6764,7 +6770,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>93000</v>
@@ -6779,7 +6785,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>94000</v>
@@ -6794,7 +6800,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>95000</v>
@@ -6809,7 +6815,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>96000</v>
@@ -6824,7 +6830,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>97000</v>
@@ -6839,7 +6845,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>98000</v>
@@ -6854,7 +6860,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>99000</v>
@@ -6869,7 +6875,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>100000</v>
@@ -6884,7 +6890,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>101000</v>
@@ -6899,7 +6905,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>102000</v>
@@ -6914,7 +6920,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>103000</v>
@@ -6929,7 +6935,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>104000</v>
@@ -6944,7 +6950,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>105000</v>
@@ -6959,7 +6965,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>106000</v>
@@ -6974,7 +6980,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>107000</v>
@@ -6989,7 +6995,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>108000</v>
@@ -7004,7 +7010,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>109000</v>
@@ -7019,7 +7025,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>110000</v>
@@ -7034,7 +7040,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>111000</v>
@@ -7049,7 +7055,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>112000</v>
@@ -7064,7 +7070,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>113000</v>
@@ -7079,7 +7085,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>114000</v>
@@ -7094,7 +7100,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>115000</v>
@@ -7109,7 +7115,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>116000</v>
@@ -7124,7 +7130,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>117000</v>
@@ -7139,7 +7145,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>117600</v>
@@ -7154,7 +7160,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>118200</v>
@@ -7169,7 +7175,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>118800</v>
@@ -7184,7 +7190,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>119400</v>
@@ -7199,7 +7205,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>120000</v>
@@ -7214,7 +7220,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>120600</v>
@@ -7229,7 +7235,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>121200</v>
@@ -7244,7 +7250,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>121800</v>
@@ -7259,7 +7265,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>122400</v>
@@ -7274,7 +7280,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>122900</v>
@@ -7289,7 +7295,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>123400</v>
@@ -7304,7 +7310,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>123900</v>
@@ -7319,7 +7325,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>124400</v>
@@ -7334,7 +7340,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>124900</v>
@@ -7349,7 +7355,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>125400</v>
@@ -7364,7 +7370,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>125900</v>
@@ -7379,7 +7385,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>126400</v>
@@ -7394,7 +7400,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>126900</v>
@@ -7409,7 +7415,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>127400</v>
@@ -7424,7 +7430,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>127900</v>
@@ -7439,7 +7445,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>128400</v>
@@ -7454,7 +7460,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>128900</v>
@@ -7469,7 +7475,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>129400</v>
@@ -7484,7 +7490,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131">
         <f t="shared" ref="A131:A194" si="2">+A130+B130</f>
         <v>129900</v>
@@ -7499,7 +7505,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132">
         <f t="shared" si="2"/>
         <v>130400</v>
@@ -7514,7 +7520,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>130900</v>
@@ -7529,7 +7535,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>131400</v>
@@ -7544,7 +7550,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>131900</v>
@@ -7559,7 +7565,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>132400</v>
@@ -7574,7 +7580,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>132900</v>
@@ -7589,7 +7595,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>133400</v>
@@ -7604,7 +7610,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>133900</v>
@@ -7619,7 +7625,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>134400</v>
@@ -7634,7 +7640,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>134900</v>
@@ -7649,7 +7655,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>135400</v>
@@ -7664,7 +7670,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>135900</v>
@@ -7679,7 +7685,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>136400</v>
@@ -7694,7 +7700,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>136900</v>
@@ -7709,7 +7715,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>137400</v>
@@ -7724,7 +7730,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>137900</v>
@@ -7739,7 +7745,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>138400</v>
@@ -7754,7 +7760,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>138900</v>
@@ -7769,7 +7775,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>139400</v>
@@ -7784,7 +7790,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>139900</v>
@@ -7799,7 +7805,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>140400</v>
@@ -7814,7 +7820,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>140900</v>
@@ -7829,7 +7835,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>141400</v>
@@ -7844,7 +7850,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>141900</v>
@@ -7859,7 +7865,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>142400</v>
@@ -7874,7 +7880,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>142900</v>
@@ -7889,7 +7895,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>143400</v>
@@ -7904,7 +7910,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>143900</v>
@@ -7919,7 +7925,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>144400</v>
@@ -7934,7 +7940,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>144900</v>
@@ -7949,7 +7955,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>145400</v>
@@ -7964,7 +7970,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>145900</v>
@@ -7979,7 +7985,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>146400</v>
@@ -7994,7 +8000,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>146900</v>
@@ -8009,7 +8015,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>147400</v>
@@ -8024,7 +8030,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>147900</v>
@@ -8039,7 +8045,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>148400</v>
@@ -8054,7 +8060,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>148900</v>
@@ -8069,7 +8075,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>149400</v>
@@ -8084,7 +8090,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>149900</v>
@@ -8099,7 +8105,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>150400</v>
@@ -8114,7 +8120,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>150900</v>
@@ -8129,7 +8135,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>151400</v>
@@ -8144,7 +8150,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>151900</v>
@@ -8159,7 +8165,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>152400</v>
@@ -8174,7 +8180,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>152900</v>
@@ -8189,7 +8195,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>153400</v>
@@ -8204,7 +8210,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>153900</v>
@@ -8219,7 +8225,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>154400</v>
@@ -8234,7 +8240,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>154900</v>
@@ -8249,7 +8255,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>155400</v>
@@ -8264,7 +8270,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>155900</v>
@@ -8279,7 +8285,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>156400</v>
@@ -8294,7 +8300,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>156900</v>
@@ -8309,7 +8315,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>157400</v>
@@ -8324,7 +8330,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>157900</v>
@@ -8339,7 +8345,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>158400</v>
@@ -8354,7 +8360,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>158900</v>
@@ -8369,7 +8375,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>159400</v>
@@ -8384,7 +8390,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>159900</v>
@@ -8399,7 +8405,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192">
         <f t="shared" si="2"/>
         <v>160400</v>
@@ -8414,7 +8420,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193">
         <f t="shared" si="2"/>
         <v>160900</v>
@@ -8429,7 +8435,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>161400</v>
@@ -8444,7 +8450,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195">
         <f t="shared" ref="A195:A258" si="3">+A194+B194</f>
         <v>161900</v>
@@ -8459,7 +8465,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196">
         <f t="shared" si="3"/>
         <v>162400</v>
@@ -8474,7 +8480,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197">
         <f t="shared" si="3"/>
         <v>162900</v>
@@ -8489,7 +8495,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198">
         <f t="shared" si="3"/>
         <v>163400</v>
@@ -8504,7 +8510,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>163900</v>
@@ -8519,7 +8525,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>164200</v>
@@ -8534,7 +8540,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>164500</v>
@@ -8549,7 +8555,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>164800</v>
@@ -8564,7 +8570,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>165000</v>
@@ -8579,7 +8585,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>165200</v>
@@ -8594,7 +8600,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>165400</v>
@@ -8609,7 +8615,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>165600</v>
@@ -8624,7 +8630,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>165800</v>
@@ -8639,7 +8645,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>166000</v>
@@ -8654,7 +8660,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>166200</v>
@@ -8669,7 +8675,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>166400</v>
@@ -8684,7 +8690,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>166600</v>
@@ -8699,7 +8705,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>166800</v>
@@ -8714,7 +8720,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>167000</v>
@@ -8729,7 +8735,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>167200</v>
@@ -8744,7 +8750,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>167400</v>
@@ -8759,7 +8765,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>167600</v>
@@ -8774,7 +8780,7 @@
         <v>109000</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>167800</v>
@@ -8789,7 +8795,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>168000</v>
@@ -8804,7 +8810,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>168200</v>
@@ -8819,7 +8825,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>168400</v>
@@ -8834,7 +8840,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>168600</v>
@@ -8849,7 +8855,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>168800</v>
@@ -8864,7 +8870,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>169000</v>
@@ -8879,7 +8885,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>169200</v>
@@ -8894,7 +8900,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>169400</v>
@@ -8909,7 +8915,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>169600</v>
@@ -8924,7 +8930,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>169800</v>
@@ -8939,7 +8945,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>170000</v>
@@ -8954,7 +8960,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>170200</v>
@@ -8969,7 +8975,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>170400</v>
@@ -8984,7 +8990,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>170600</v>
@@ -8999,7 +9005,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>170800</v>
@@ -9014,7 +9020,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>171000</v>
@@ -9029,7 +9035,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>171200</v>
@@ -9044,7 +9050,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>171400</v>
@@ -9059,7 +9065,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>171600</v>
@@ -9074,7 +9080,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>171800</v>
@@ -9089,7 +9095,7 @@
         <v>95500</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>172000</v>
@@ -9104,7 +9110,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>172200</v>
@@ -9119,7 +9125,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240">
         <f t="shared" si="3"/>
         <v>172400</v>
@@ -9134,7 +9140,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>172600</v>
@@ -9149,7 +9155,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>172800</v>
@@ -9164,7 +9170,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>173000</v>
@@ -9179,7 +9185,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244">
         <f t="shared" si="3"/>
         <v>173200</v>
@@ -9194,7 +9200,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245">
         <f t="shared" si="3"/>
         <v>173400</v>
@@ -9209,7 +9215,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246">
         <f t="shared" si="3"/>
         <v>173600</v>
@@ -9224,7 +9230,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247">
         <f t="shared" si="3"/>
         <v>173700</v>
@@ -9239,7 +9245,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248">
         <f t="shared" si="3"/>
         <v>173800</v>
@@ -9254,7 +9260,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249">
         <f t="shared" si="3"/>
         <v>173900</v>
@@ -9269,7 +9275,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250">
         <f t="shared" si="3"/>
         <v>174000</v>
@@ -9284,7 +9290,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251">
         <f t="shared" si="3"/>
         <v>174100</v>
@@ -9299,7 +9305,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252">
         <f t="shared" si="3"/>
         <v>174200</v>
@@ -9314,7 +9320,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253">
         <f t="shared" si="3"/>
         <v>174300</v>
@@ -9329,7 +9335,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254">
         <f t="shared" si="3"/>
         <v>174400</v>
@@ -9344,7 +9350,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255">
         <f t="shared" si="3"/>
         <v>174500</v>
@@ -9359,7 +9365,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256">
         <f t="shared" si="3"/>
         <v>174600</v>
@@ -9374,7 +9380,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257">
         <f t="shared" si="3"/>
         <v>174700</v>
@@ -9389,7 +9395,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A258">
         <f t="shared" si="3"/>
         <v>174800</v>
@@ -9404,7 +9410,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259">
         <f t="shared" ref="A259:A291" si="4">+A258+B258</f>
         <v>174900</v>
@@ -9419,7 +9425,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260">
         <f t="shared" si="4"/>
         <v>175000</v>
@@ -9434,7 +9440,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261">
         <f t="shared" si="4"/>
         <v>175100</v>
@@ -9449,7 +9455,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262">
         <f t="shared" si="4"/>
         <v>175200</v>
@@ -9464,7 +9470,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A263">
         <f t="shared" si="4"/>
         <v>175300</v>
@@ -9479,7 +9485,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A264">
         <f t="shared" si="4"/>
         <v>175400</v>
@@ -9494,7 +9500,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265">
         <f t="shared" si="4"/>
         <v>175500</v>
@@ -9509,7 +9515,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A266">
         <f t="shared" si="4"/>
         <v>175600</v>
@@ -9524,7 +9530,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267">
         <f t="shared" si="4"/>
         <v>175700</v>
@@ -9539,7 +9545,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268">
         <f t="shared" si="4"/>
         <v>175800</v>
@@ -9554,7 +9560,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269">
         <f t="shared" si="4"/>
         <v>175900</v>
@@ -9569,7 +9575,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A270">
         <f t="shared" si="4"/>
         <v>176000</v>
@@ -9584,7 +9590,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A271">
         <f t="shared" si="4"/>
         <v>176100</v>
@@ -9599,7 +9605,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272">
         <f t="shared" si="4"/>
         <v>176200</v>
@@ -9614,7 +9620,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273">
         <f t="shared" si="4"/>
         <v>176300</v>
@@ -9629,7 +9635,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274">
         <f t="shared" si="4"/>
         <v>176400</v>
@@ -9644,7 +9650,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275">
         <f t="shared" si="4"/>
         <v>176500</v>
@@ -9659,7 +9665,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A276">
         <f t="shared" si="4"/>
         <v>176600</v>
@@ -9674,7 +9680,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A277">
         <f t="shared" si="4"/>
         <v>176700</v>
@@ -9689,7 +9695,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A278">
         <f t="shared" si="4"/>
         <v>176800</v>
@@ -9704,7 +9710,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A279">
         <f t="shared" si="4"/>
         <v>176900</v>
@@ -9719,7 +9725,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280">
         <f t="shared" si="4"/>
         <v>177000</v>
@@ -9734,7 +9740,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281">
         <f t="shared" si="4"/>
         <v>177100</v>
@@ -9749,7 +9755,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A282">
         <f t="shared" si="4"/>
         <v>177200</v>
@@ -9764,7 +9770,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283">
         <f t="shared" si="4"/>
         <v>177300</v>
@@ -9779,7 +9785,7 @@
         <v>71680</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284">
         <f t="shared" si="4"/>
         <v>177400</v>
@@ -9794,7 +9800,7 @@
         <v>61440</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A285">
         <f t="shared" si="4"/>
         <v>177500</v>
@@ -9809,7 +9815,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A286">
         <f t="shared" si="4"/>
         <v>177600</v>
@@ -9824,7 +9830,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A287">
         <f t="shared" si="4"/>
         <v>177700</v>
@@ -9839,7 +9845,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A288">
         <f t="shared" si="4"/>
         <v>177800</v>
@@ -9854,7 +9860,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A289">
         <f t="shared" si="4"/>
         <v>177900</v>
@@ -9869,7 +9875,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A290">
         <f t="shared" si="4"/>
         <v>178000</v>
@@ -9884,7 +9890,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291">
         <f t="shared" si="4"/>
         <v>178100</v>
@@ -9908,27 +9914,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="12" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" customWidth="1"/>
+    <col min="11" max="12" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>773</v>
       </c>
@@ -9966,7 +9972,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>785</v>
       </c>
@@ -10004,7 +10010,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>786</v>
       </c>
@@ -10042,7 +10048,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>787</v>
       </c>
@@ -10080,7 +10086,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>788</v>
       </c>
@@ -10118,7 +10124,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>802</v>
       </c>
@@ -10143,16 +10149,16 @@
       <c r="H6" t="s">
         <v>879</v>
       </c>
-      <c r="I6" s="41" t="str">
+      <c r="I6" s="31" t="str">
         <f ca="1">'Town Sheet'!B$14 &amp; "'s"</f>
-        <v>Elelror's</v>
-      </c>
-      <c r="K6" s="41" t="str">
+        <v>Celenwe's</v>
+      </c>
+      <c r="K6" s="31" t="str">
         <f ca="1">'Town Sheet'!B$15 &amp; "'s"</f>
-        <v>Ariel's</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>Anindis's</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>850</v>
       </c>
@@ -10177,16 +10183,16 @@
       <c r="H7" t="s">
         <v>880</v>
       </c>
-      <c r="I7" s="41" t="str">
+      <c r="I7" s="31" t="str">
         <f ca="1">'Town Sheet'!B$14 &amp; "'s"</f>
-        <v>Elelror's</v>
-      </c>
-      <c r="K7" s="41" t="str">
+        <v>Celenwe's</v>
+      </c>
+      <c r="K7" s="31" t="str">
         <f ca="1">'Town Sheet'!B$15 &amp; "'s"</f>
-        <v>Ariel's</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>Anindis's</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>851</v>
       </c>
@@ -10199,30 +10205,30 @@
       <c r="D8" t="s">
         <v>869</v>
       </c>
-      <c r="E8" s="41" t="str">
+      <c r="E8" s="31" t="str">
         <f ca="1">'Town Sheet'!B$12 &amp; "'s"</f>
-        <v>Erehrt's</v>
+        <v>Eolwynn's</v>
       </c>
       <c r="F8" t="s">
         <v>875</v>
       </c>
-      <c r="G8" s="41" t="str">
+      <c r="G8" s="31" t="str">
         <f ca="1">'Town Sheet'!B$13 &amp; "'s"</f>
-        <v>Rewalt's</v>
+        <v>Wynna's</v>
       </c>
       <c r="H8" t="s">
         <v>881</v>
       </c>
-      <c r="I8" s="41" t="str">
+      <c r="I8" s="31" t="str">
         <f ca="1">'Town Sheet'!B$14 &amp; "'s"</f>
-        <v>Elelror's</v>
-      </c>
-      <c r="K8" s="41" t="str">
+        <v>Celenwe's</v>
+      </c>
+      <c r="K8" s="31" t="str">
         <f ca="1">'Town Sheet'!B$15 &amp; "'s"</f>
-        <v>Ariel's</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>Anindis's</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>852</v>
       </c>
@@ -10232,297 +10238,297 @@
       <c r="C9" t="s">
         <v>870</v>
       </c>
-      <c r="E9" s="41" t="str">
+      <c r="E9" s="31" t="str">
         <f ca="1">'Town Sheet'!B$12 &amp; "'s"</f>
-        <v>Erehrt's</v>
+        <v>Eolwynn's</v>
       </c>
       <c r="F9" t="s">
         <v>877</v>
       </c>
-      <c r="G9" s="41" t="str">
+      <c r="G9" s="31" t="str">
         <f ca="1">'Town Sheet'!B$13 &amp; "'s"</f>
-        <v>Rewalt's</v>
+        <v>Wynna's</v>
       </c>
       <c r="H9" t="s">
         <v>882</v>
       </c>
-      <c r="I9" s="41" t="str">
+      <c r="I9" s="31" t="str">
         <f ca="1">'Town Sheet'!B$14 &amp; "'s"</f>
-        <v>Elelror's</v>
-      </c>
-      <c r="K9" s="41" t="str">
+        <v>Celenwe's</v>
+      </c>
+      <c r="K9" s="31" t="str">
         <f ca="1">'Town Sheet'!B$15 &amp; "'s"</f>
-        <v>Ariel's</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>Anindis's</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>856</v>
       </c>
       <c r="B10" t="s">
         <v>861</v>
       </c>
-      <c r="C10" s="41" t="str">
+      <c r="C10" s="31" t="str">
         <f ca="1">'Town Sheet'!B$11 &amp; "'s"</f>
-        <v>Enelron's</v>
-      </c>
-      <c r="E10" s="41" t="str">
+        <v>Thori's</v>
+      </c>
+      <c r="E10" s="31" t="str">
         <f ca="1">'Town Sheet'!B$12 &amp; "'s"</f>
-        <v>Erehrt's</v>
-      </c>
-      <c r="G10" s="41" t="str">
+        <v>Eolwynn's</v>
+      </c>
+      <c r="G10" s="31" t="str">
         <f ca="1">'Town Sheet'!B$13 &amp; "'s"</f>
-        <v>Rewalt's</v>
+        <v>Wynna's</v>
       </c>
       <c r="H10" t="s">
         <v>883</v>
       </c>
-      <c r="I10" s="41" t="str">
+      <c r="I10" s="31" t="str">
         <f ca="1">'Town Sheet'!B$14 &amp; "'s"</f>
-        <v>Elelror's</v>
-      </c>
-      <c r="K10" s="41" t="str">
+        <v>Celenwe's</v>
+      </c>
+      <c r="K10" s="31" t="str">
         <f ca="1">'Town Sheet'!B$15 &amp; "'s"</f>
-        <v>Ariel's</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>Anindis's</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>857</v>
       </c>
       <c r="B11" t="s">
         <v>863</v>
       </c>
-      <c r="C11" s="41" t="str">
+      <c r="C11" s="31" t="str">
         <f ca="1">'Town Sheet'!B$11 &amp; "'s"</f>
-        <v>Enelron's</v>
-      </c>
-      <c r="E11" s="41" t="str">
+        <v>Thori's</v>
+      </c>
+      <c r="E11" s="31" t="str">
         <f ca="1">'Town Sheet'!B$12 &amp; "'s"</f>
-        <v>Erehrt's</v>
-      </c>
-      <c r="G11" s="41" t="str">
+        <v>Eolwynn's</v>
+      </c>
+      <c r="G11" s="31" t="str">
         <f ca="1">'Town Sheet'!B$13 &amp; "'s"</f>
-        <v>Rewalt's</v>
-      </c>
-      <c r="I11" s="41" t="str">
+        <v>Wynna's</v>
+      </c>
+      <c r="I11" s="31" t="str">
         <f ca="1">'Town Sheet'!B$14 &amp; "'s"</f>
-        <v>Elelror's</v>
-      </c>
-      <c r="K11" s="41" t="str">
+        <v>Celenwe's</v>
+      </c>
+      <c r="K11" s="31" t="str">
         <f ca="1">'Town Sheet'!B$15 &amp; "'s"</f>
-        <v>Ariel's</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>Anindis's</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>858</v>
       </c>
       <c r="B12" t="s">
         <v>874</v>
       </c>
-      <c r="C12" s="41" t="str">
+      <c r="C12" s="31" t="str">
         <f ca="1">'Town Sheet'!B$11 &amp; "'s"</f>
-        <v>Enelron's</v>
-      </c>
-      <c r="E12" s="41" t="str">
+        <v>Thori's</v>
+      </c>
+      <c r="E12" s="31" t="str">
         <f ca="1">'Town Sheet'!B$12 &amp; "'s"</f>
-        <v>Erehrt's</v>
-      </c>
-      <c r="G12" s="41" t="str">
+        <v>Eolwynn's</v>
+      </c>
+      <c r="G12" s="31" t="str">
         <f ca="1">'Town Sheet'!B$13 &amp; "'s"</f>
-        <v>Rewalt's</v>
-      </c>
-      <c r="I12" s="41" t="str">
+        <v>Wynna's</v>
+      </c>
+      <c r="I12" s="31" t="str">
         <f ca="1">'Town Sheet'!C$14 &amp; "'s"</f>
-        <v>Embertalon's</v>
-      </c>
-      <c r="K12" s="41" t="str">
+        <v>Bouldersun's</v>
+      </c>
+      <c r="K12" s="31" t="str">
         <f ca="1">'Town Sheet'!C$15 &amp; "'s"</f>
-        <v>Lonespark's</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>Proudfeather's</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>859</v>
       </c>
-      <c r="C13" s="41" t="str">
+      <c r="C13" s="31" t="str">
         <f ca="1">'Town Sheet'!B$11 &amp; "'s"</f>
-        <v>Enelron's</v>
-      </c>
-      <c r="E13" s="41" t="str">
+        <v>Thori's</v>
+      </c>
+      <c r="E13" s="31" t="str">
         <f ca="1">'Town Sheet'!B$12 &amp; "'s"</f>
-        <v>Erehrt's</v>
-      </c>
-      <c r="G13" s="41" t="str">
+        <v>Eolwynn's</v>
+      </c>
+      <c r="G13" s="31" t="str">
         <f ca="1">'Town Sheet'!B$13 &amp; "'s"</f>
-        <v>Rewalt's</v>
-      </c>
-      <c r="I13" s="41" t="str">
+        <v>Wynna's</v>
+      </c>
+      <c r="I13" s="31" t="str">
         <f ca="1">'Town Sheet'!C$14 &amp; "'s"</f>
-        <v>Embertalon's</v>
-      </c>
-      <c r="K13" s="41" t="str">
+        <v>Bouldersun's</v>
+      </c>
+      <c r="K13" s="31" t="str">
         <f ca="1">'Town Sheet'!C$15 &amp; "'s"</f>
-        <v>Lonespark's</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>Proudfeather's</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>862</v>
       </c>
-      <c r="C14" s="41" t="str">
+      <c r="C14" s="31" t="str">
         <f ca="1">'Town Sheet'!B$11 &amp; "'s"</f>
-        <v>Enelron's</v>
-      </c>
-      <c r="E14" s="41" t="str">
+        <v>Thori's</v>
+      </c>
+      <c r="E14" s="31" t="str">
         <f ca="1">'Town Sheet'!C$12 &amp; "'s"</f>
-        <v>Pyreblade's</v>
-      </c>
-      <c r="G14" s="41" t="str">
+        <v>Hilltop's</v>
+      </c>
+      <c r="G14" s="31" t="str">
         <f ca="1">'Town Sheet'!C$13 &amp; "'s"</f>
-        <v>Seatail's</v>
-      </c>
-      <c r="I14" s="41" t="str">
+        <v>Dustshot's</v>
+      </c>
+      <c r="I14" s="31" t="str">
         <f ca="1">'Town Sheet'!C$14 &amp; "'s"</f>
-        <v>Embertalon's</v>
-      </c>
-      <c r="K14" s="41" t="str">
+        <v>Bouldersun's</v>
+      </c>
+      <c r="K14" s="31" t="str">
         <f ca="1">'Town Sheet'!C$15 &amp; "'s"</f>
-        <v>Lonespark's</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>Proudfeather's</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>873</v>
       </c>
-      <c r="C15" s="41" t="str">
+      <c r="C15" s="31" t="str">
         <f ca="1">'Town Sheet'!C$11 &amp; "'s"</f>
-        <v>Fernshaper's</v>
-      </c>
-      <c r="E15" s="41" t="str">
+        <v>Flatgrip's</v>
+      </c>
+      <c r="E15" s="31" t="str">
         <f ca="1">'Town Sheet'!C$12 &amp; "'s"</f>
-        <v>Pyreblade's</v>
-      </c>
-      <c r="G15" s="41" t="str">
+        <v>Hilltop's</v>
+      </c>
+      <c r="G15" s="31" t="str">
         <f ca="1">'Town Sheet'!C$13 &amp; "'s"</f>
-        <v>Seatail's</v>
-      </c>
-      <c r="I15" s="41" t="str">
+        <v>Dustshot's</v>
+      </c>
+      <c r="I15" s="31" t="str">
         <f ca="1">'Town Sheet'!C$14 &amp; "'s"</f>
-        <v>Embertalon's</v>
-      </c>
-      <c r="K15" s="41" t="str">
+        <v>Bouldersun's</v>
+      </c>
+      <c r="K15" s="31" t="str">
         <f ca="1">'Town Sheet'!C$15 &amp; "'s"</f>
-        <v>Lonespark's</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="str">
+        <v>Proudfeather's</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="31" t="str">
         <f ca="1">'Town Sheet'!B$10 &amp; "'s"</f>
-        <v>Cece's</v>
-      </c>
-      <c r="C16" s="41" t="str">
+        <v>Makili's</v>
+      </c>
+      <c r="C16" s="31" t="str">
         <f ca="1">'Town Sheet'!C$11 &amp; "'s"</f>
-        <v>Fernshaper's</v>
-      </c>
-      <c r="E16" s="41" t="str">
+        <v>Flatgrip's</v>
+      </c>
+      <c r="E16" s="31" t="str">
         <f ca="1">'Town Sheet'!C$12 &amp; "'s"</f>
-        <v>Pyreblade's</v>
-      </c>
-      <c r="G16" s="41" t="str">
+        <v>Hilltop's</v>
+      </c>
+      <c r="G16" s="31" t="str">
         <f ca="1">'Town Sheet'!C$13 &amp; "'s"</f>
-        <v>Seatail's</v>
-      </c>
-      <c r="I16" s="41" t="str">
+        <v>Dustshot's</v>
+      </c>
+      <c r="I16" s="31" t="str">
         <f ca="1">'Town Sheet'!C$14 &amp; "'s"</f>
-        <v>Embertalon's</v>
-      </c>
-      <c r="K16" s="41" t="str">
+        <v>Bouldersun's</v>
+      </c>
+      <c r="K16" s="31" t="str">
         <f ca="1">'Town Sheet'!C$15 &amp; "'s"</f>
-        <v>Lonespark's</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="str">
+        <v>Proudfeather's</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="31" t="str">
         <f ca="1">'Town Sheet'!B$10 &amp; "'s"</f>
-        <v>Cece's</v>
-      </c>
-      <c r="C17" s="41" t="str">
+        <v>Makili's</v>
+      </c>
+      <c r="C17" s="31" t="str">
         <f ca="1">'Town Sheet'!C$11 &amp; "'s"</f>
-        <v>Fernshaper's</v>
-      </c>
-      <c r="E17" s="41" t="str">
+        <v>Flatgrip's</v>
+      </c>
+      <c r="E17" s="31" t="str">
         <f ca="1">'Town Sheet'!C$12 &amp; "'s"</f>
-        <v>Pyreblade's</v>
-      </c>
-      <c r="G17" s="41" t="str">
+        <v>Hilltop's</v>
+      </c>
+      <c r="G17" s="31" t="str">
         <f ca="1">'Town Sheet'!C$13 &amp; "'s"</f>
-        <v>Seatail's</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="str">
+        <v>Dustshot's</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="31" t="str">
         <f ca="1">'Town Sheet'!B$10 &amp; "'s"</f>
-        <v>Cece's</v>
-      </c>
-      <c r="C18" s="41" t="str">
+        <v>Makili's</v>
+      </c>
+      <c r="C18" s="31" t="str">
         <f ca="1">'Town Sheet'!C$11 &amp; "'s"</f>
-        <v>Fernshaper's</v>
-      </c>
-      <c r="E18" s="41" t="str">
+        <v>Flatgrip's</v>
+      </c>
+      <c r="E18" s="31" t="str">
         <f ca="1">'Town Sheet'!C$12 &amp; "'s"</f>
-        <v>Pyreblade's</v>
-      </c>
-      <c r="G18" s="41" t="str">
+        <v>Hilltop's</v>
+      </c>
+      <c r="G18" s="31" t="str">
         <f ca="1">'Town Sheet'!C$13 &amp; "'s"</f>
-        <v>Seatail's</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="str">
+        <v>Dustshot's</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="31" t="str">
         <f ca="1">'Town Sheet'!B$10 &amp; "'s"</f>
-        <v>Cece's</v>
-      </c>
-      <c r="C19" s="41" t="str">
+        <v>Makili's</v>
+      </c>
+      <c r="C19" s="31" t="str">
         <f ca="1">'Town Sheet'!C$11 &amp; "'s"</f>
-        <v>Fernshaper's</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="str">
+        <v>Flatgrip's</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="str">
         <f ca="1">'Town Sheet'!B$10 &amp; "'s"</f>
-        <v>Cece's</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="str">
+        <v>Makili's</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="31" t="str">
         <f ca="1">'Town Sheet'!C$10 &amp; "'s"</f>
-        <v>Val'haren's</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="str">
+        <v>Slatestriker's</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="31" t="str">
         <f ca="1">'Town Sheet'!C$10 &amp; "'s"</f>
-        <v>Val'haren's</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="str">
+        <v>Slatestriker's</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="str">
         <f ca="1">'Town Sheet'!C$10 &amp; "'s"</f>
-        <v>Val'haren's</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="str">
+        <v>Slatestriker's</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="31" t="str">
         <f ca="1">'Town Sheet'!C$10 &amp; "'s"</f>
-        <v>Val'haren's</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="str">
+        <v>Slatestriker's</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="31" t="str">
         <f ca="1">'Town Sheet'!C$10 &amp; "'s"</f>
-        <v>Val'haren's</v>
+        <v>Slatestriker's</v>
       </c>
     </row>
   </sheetData>
@@ -10532,90 +10538,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(AllMagicItems!A:A&lt;&gt;""),AllMagicItems!A:A)),AllMagicItems!A:C,1,TRUE)</f>
-        <v>71000</v>
+        <v>32000</v>
       </c>
       <c r="B3" t="str">
         <f ca="1">VLOOKUP((A3),AllMagicItems!A:E,3,TRUE)</f>
-        <v>Elemental Gem</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Elven Chain</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(AllMagicItems!A:A&lt;&gt;""),AllMagicItems!A:A)),AllMagicItems!A:C,1,TRUE)</f>
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="B4" t="str">
         <f ca="1">VLOOKUP((A4),AllMagicItems!A:E,3,TRUE)</f>
-        <v>Robe of Useful Items</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Gloves of Swimming and Climbing</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>2000</v>
+        <v>15800</v>
       </c>
       <c r="B7" t="str">
         <f ca="1">VLOOKUP((A7),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Healing</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Oil of Etherealness</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="B8" t="str">
         <f ca="1">VLOOKUP((A8),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Healing</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Potion of Animal Friendship</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <f ca="1">RANDBETWEEN(10,30)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1">
         <f ca="1">PRODUCT(B11,C11)</f>
-        <v>1260</v>
+        <v>2185</v>
       </c>
     </row>
   </sheetData>
@@ -10625,25 +10631,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
@@ -10666,7 +10672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10689,7 +10695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10712,7 +10718,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10735,7 +10741,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10758,7 +10764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -10781,7 +10787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -10804,7 +10810,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -10827,7 +10833,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -10850,7 +10856,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -10873,7 +10879,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -10896,7 +10902,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -10919,7 +10925,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -10942,7 +10948,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -10965,7 +10971,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -10986,7 +10992,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -11009,7 +11015,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -11032,7 +11038,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -11055,7 +11061,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -11078,7 +11084,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -11101,7 +11107,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -11124,7 +11130,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -11147,7 +11153,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -11170,7 +11176,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -11193,7 +11199,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -11216,7 +11222,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -11239,7 +11245,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -11259,7 +11265,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -11276,7 +11282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -11293,7 +11299,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -11310,7 +11316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -11325,7 +11331,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -11340,7 +11346,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -11354,7 +11360,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -11368,7 +11374,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -11382,7 +11388,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -11396,7 +11402,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>128</v>
       </c>
@@ -11407,7 +11413,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -11418,7 +11424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -11429,7 +11435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -11440,7 +11446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -11451,7 +11457,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -11462,7 +11468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>154</v>
       </c>
@@ -11473,7 +11479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>155</v>
       </c>
@@ -11484,7 +11490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>156</v>
       </c>
@@ -11495,7 +11501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -11506,7 +11512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>158</v>
       </c>
@@ -11517,7 +11523,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>159</v>
       </c>
@@ -11528,7 +11534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -11539,7 +11545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>161</v>
       </c>
@@ -11550,7 +11556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>162</v>
       </c>
@@ -11561,7 +11567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>163</v>
       </c>
@@ -11572,7 +11578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>164</v>
       </c>
@@ -11583,7 +11589,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -11594,7 +11600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>166</v>
       </c>
@@ -11605,7 +11611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>167</v>
       </c>
@@ -11616,7 +11622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>168</v>
       </c>
@@ -11627,7 +11633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>169</v>
       </c>
@@ -11638,7 +11644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>170</v>
       </c>
@@ -11649,7 +11655,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>171</v>
       </c>
@@ -11660,7 +11666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>172</v>
       </c>
@@ -11671,7 +11677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>173</v>
       </c>
@@ -11682,7 +11688,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>174</v>
       </c>
@@ -11693,7 +11699,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>175</v>
       </c>
@@ -11704,7 +11710,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>176</v>
       </c>
@@ -11715,7 +11721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>177</v>
       </c>
@@ -11726,7 +11732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>178</v>
       </c>
@@ -11737,7 +11743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>179</v>
       </c>
@@ -11748,7 +11754,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>180</v>
       </c>
@@ -11759,7 +11765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>181</v>
       </c>
@@ -11770,7 +11776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>182</v>
       </c>
@@ -11781,7 +11787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>183</v>
       </c>
@@ -11792,7 +11798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>184</v>
       </c>
@@ -11803,7 +11809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>185</v>
       </c>
@@ -11814,7 +11820,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>186</v>
       </c>
@@ -11825,7 +11831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>187</v>
       </c>
@@ -11836,7 +11842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>188</v>
       </c>
@@ -11847,7 +11853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>189</v>
       </c>
@@ -11858,7 +11864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>190</v>
       </c>
@@ -11869,7 +11875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>191</v>
       </c>
@@ -11880,7 +11886,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>192</v>
       </c>
@@ -11891,7 +11897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>193</v>
       </c>
@@ -11902,7 +11908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>194</v>
       </c>
@@ -11913,7 +11919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>195</v>
       </c>
@@ -11924,7 +11930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>196</v>
       </c>
@@ -11935,7 +11941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>197</v>
       </c>
@@ -11946,7 +11952,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>198</v>
       </c>
@@ -11957,7 +11963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>199</v>
       </c>
@@ -11968,7 +11974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>200</v>
       </c>
@@ -11979,7 +11985,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>201</v>
       </c>
@@ -11990,7 +11996,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>202</v>
       </c>
@@ -12001,7 +12007,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>193</v>
       </c>
@@ -12012,7 +12018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>203</v>
       </c>
@@ -12023,7 +12029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -12034,7 +12040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>205</v>
       </c>
@@ -12045,7 +12051,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>206</v>
       </c>
@@ -12056,7 +12062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>207</v>
       </c>
@@ -12067,7 +12073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>208</v>
       </c>
@@ -12075,7 +12081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>209</v>
       </c>
@@ -12083,7 +12089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>141</v>
       </c>
@@ -12091,7 +12097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>210</v>
       </c>
@@ -12099,7 +12105,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>130</v>
       </c>
@@ -12107,7 +12113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>211</v>
       </c>
@@ -12115,7 +12121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>212</v>
       </c>
@@ -12123,7 +12129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>138</v>
       </c>
@@ -12131,7 +12137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>148</v>
       </c>
@@ -12139,7 +12145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -12147,7 +12153,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -12155,7 +12161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -12163,192 +12169,192 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>252</v>
       </c>
@@ -12360,19 +12366,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
-    <col min="5" max="5" width="92.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="41.81640625" customWidth="1"/>
+    <col min="5" max="5" width="92.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>927</v>
       </c>
@@ -12389,7 +12395,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12406,7 +12412,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f>+A2+B2</f>
         <v>2000</v>
@@ -12424,7 +12430,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" ref="A4:A35" si="0">+A3+B3</f>
         <v>5000</v>
@@ -12442,7 +12448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -12460,7 +12466,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>7000</v>
@@ -12478,7 +12484,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -12496,7 +12502,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>9000</v>
@@ -12514,7 +12520,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>10300</v>
@@ -12532,7 +12538,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>11300</v>
@@ -12550,7 +12556,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>12300</v>
@@ -12568,7 +12574,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>13300</v>
@@ -12586,7 +12592,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>14300</v>
@@ -12604,7 +12610,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>15300</v>
@@ -12622,7 +12628,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>15800</v>
@@ -12640,7 +12646,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>16300</v>
@@ -12658,7 +12664,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16800</v>
@@ -12676,7 +12682,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17300</v>
@@ -12694,7 +12700,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17800</v>
@@ -12712,7 +12718,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18300</v>
@@ -12730,7 +12736,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18800</v>
@@ -12748,7 +12754,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19300</v>
@@ -12766,7 +12772,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>19800</v>
@@ -12784,7 +12790,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>20300</v>
@@ -12802,7 +12808,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>20800</v>
@@ -12820,7 +12826,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>21550</v>
@@ -12838,7 +12844,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>21750</v>
@@ -12856,7 +12862,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>21950</v>
@@ -12874,7 +12880,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>22150</v>
@@ -12892,7 +12898,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>22350</v>
@@ -12910,7 +12916,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>22550</v>
@@ -12928,7 +12934,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>22750</v>
@@ -12946,7 +12952,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>23050</v>
@@ -12964,7 +12970,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>23250</v>
@@ -12982,7 +12988,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>23350</v>
@@ -12994,24 +13000,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="4" width="33.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="4" width="33.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>927</v>
       </c>
@@ -13037,7 +13043,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13055,7 +13061,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f>+A2+B2</f>
         <v>20000</v>
@@ -13080,7 +13086,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" ref="A4:A62" si="0">+A3+B3</f>
         <v>22000</v>
@@ -13103,7 +13109,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>24000</v>
@@ -13128,7 +13134,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>26000</v>
@@ -13153,7 +13159,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>28000</v>
@@ -13178,7 +13184,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>30000</v>
@@ -13203,7 +13209,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>31000</v>
@@ -13230,7 +13236,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>32000</v>
@@ -13253,7 +13259,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>33000</v>
@@ -13280,7 +13286,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>34000</v>
@@ -13305,7 +13311,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>35000</v>
@@ -13330,7 +13336,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>36000</v>
@@ -13357,7 +13363,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>37000</v>
@@ -13382,7 +13388,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>38000</v>
@@ -13409,7 +13415,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>38500</v>
@@ -13432,7 +13438,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>39000</v>
@@ -13459,7 +13465,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>39500</v>
@@ -13486,7 +13492,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>40000</v>
@@ -13511,7 +13517,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>40500</v>
@@ -13536,7 +13542,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>41000</v>
@@ -13563,7 +13569,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>41500</v>
@@ -13590,7 +13596,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>41600</v>
@@ -13613,7 +13619,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>41700</v>
@@ -13640,7 +13646,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>41800</v>
@@ -13667,7 +13673,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>41900</v>
@@ -13692,7 +13698,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>43900</v>
@@ -13717,7 +13723,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>45900</v>
@@ -13744,7 +13750,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>47900</v>
@@ -13771,7 +13777,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>49900</v>
@@ -13796,7 +13802,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>51900</v>
@@ -13819,7 +13825,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>53900</v>
@@ -13844,7 +13850,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>54900</v>
@@ -13871,7 +13877,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>55900</v>
@@ -13896,7 +13902,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>56900</v>
@@ -13921,7 +13927,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>57900</v>
@@ -13948,7 +13954,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>58900</v>
@@ -13973,7 +13979,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>59900</v>
@@ -14000,7 +14006,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>60900</v>
@@ -14025,7 +14031,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>61900</v>
@@ -14052,7 +14058,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>62900</v>
@@ -14079,7 +14085,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>63900</v>
@@ -14106,7 +14112,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>64900</v>
@@ -14133,7 +14139,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>65900</v>
@@ -14156,7 +14162,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>66900</v>
@@ -14179,7 +14185,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>67900</v>
@@ -14204,7 +14210,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>68400</v>
@@ -14229,7 +14235,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>68900</v>
@@ -14256,7 +14262,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>69400</v>
@@ -14283,7 +14289,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>69900</v>
@@ -14310,7 +14316,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>70400</v>
@@ -14337,7 +14343,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>70900</v>
@@ -14364,7 +14370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>71400</v>
@@ -14391,7 +14397,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>71900</v>
@@ -14418,7 +14424,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>72400</v>
@@ -14441,7 +14447,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>72900</v>
@@ -14468,7 +14474,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>73000</v>
@@ -14493,7 +14499,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>73100</v>
@@ -14520,7 +14526,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>73200</v>
@@ -14547,7 +14553,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>73300</v>
@@ -14574,7 +14580,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>73400</v>
@@ -14607,22 +14613,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="3" max="4" width="29.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="9" max="9" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="42" x14ac:dyDescent="0.35">
       <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
@@ -14645,7 +14651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -14664,7 +14670,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f>+A2+B2</f>
         <v>5000</v>
@@ -14692,7 +14698,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f>+A3+B3</f>
         <v>6200</v>
@@ -14720,7 +14726,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" ref="A5:A27" si="0">+A4+B4</f>
         <v>7400</v>
@@ -14746,7 +14752,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>8600</v>
@@ -14774,7 +14780,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>9800</v>
@@ -14800,7 +14806,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>11000</v>
@@ -14826,7 +14832,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>11600</v>
@@ -14854,7 +14860,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>12200</v>
@@ -14882,7 +14888,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>12800</v>
@@ -14910,7 +14916,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>13400</v>
@@ -14938,7 +14944,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>14000</v>
@@ -14966,7 +14972,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>14600</v>
@@ -14994,7 +15000,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>15200</v>
@@ -15022,7 +15028,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15800</v>
@@ -15050,7 +15056,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16400</v>
@@ -15078,7 +15084,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16700</v>
@@ -15106,7 +15112,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17000</v>
@@ -15134,7 +15140,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17300</v>
@@ -15162,7 +15168,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>17400</v>
@@ -15190,7 +15196,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -15218,7 +15224,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>17600</v>
@@ -15246,7 +15252,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>17700</v>
@@ -15274,7 +15280,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>17800</v>
@@ -15302,7 +15308,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>17900</v>
@@ -15328,7 +15334,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>18000</v>
@@ -15362,22 +15368,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A167" sqref="A2:D167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="3" max="4" width="33.453125" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" customWidth="1"/>
+    <col min="9" max="9" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C1" s="11" t="s">
         <v>38</v>
       </c>
@@ -15400,7 +15406,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15425,7 +15431,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f>+A2+B2</f>
         <v>1000</v>
@@ -15453,7 +15459,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">+A3+B3</f>
         <v>2000</v>
@@ -15479,7 +15485,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3000</v>
@@ -15503,7 +15509,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4000</v>
@@ -15529,7 +15535,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5000</v>
@@ -15557,7 +15563,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -15585,7 +15591,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7000</v>
@@ -15613,7 +15619,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -15641,7 +15647,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9000</v>
@@ -15667,7 +15673,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -15693,7 +15699,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11000</v>
@@ -15719,7 +15725,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12000</v>
@@ -15747,7 +15753,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -15775,7 +15781,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14000</v>
@@ -15801,7 +15807,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -15827,7 +15833,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16000</v>
@@ -15853,7 +15859,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17000</v>
@@ -15879,7 +15885,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18000</v>
@@ -15905,7 +15911,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19000</v>
@@ -15931,7 +15937,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20000</v>
@@ -15957,7 +15963,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21000</v>
@@ -15983,7 +15989,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22000</v>
@@ -16009,7 +16015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23000</v>
@@ -16037,7 +16043,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24000</v>
@@ -16063,7 +16069,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25000</v>
@@ -16091,7 +16097,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26000</v>
@@ -16117,7 +16123,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27000</v>
@@ -16145,7 +16151,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28000</v>
@@ -16171,7 +16177,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29000</v>
@@ -16199,7 +16205,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30000</v>
@@ -16227,7 +16233,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31000</v>
@@ -16253,7 +16259,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32000</v>
@@ -16279,7 +16285,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33000</v>
@@ -16307,7 +16313,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34000</v>
@@ -16335,7 +16341,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35000</v>
@@ -16361,7 +16367,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36000</v>
@@ -16389,7 +16395,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37000</v>
@@ -16419,7 +16425,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38000</v>
@@ -16449,7 +16455,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39000</v>
@@ -16479,7 +16485,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40000</v>
@@ -16505,7 +16511,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41000</v>
@@ -16531,7 +16537,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42000</v>
@@ -16559,7 +16565,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43000</v>
@@ -16587,7 +16593,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44000</v>
@@ -16617,7 +16623,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45000</v>
@@ -16643,7 +16649,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46000</v>
@@ -16671,7 +16677,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47000</v>
@@ -16697,7 +16703,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48000</v>
@@ -16725,7 +16731,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49000</v>
@@ -16751,7 +16757,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50000</v>
@@ -16777,7 +16783,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -16803,7 +16809,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52000</v>
@@ -16829,7 +16835,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53000</v>
@@ -16855,7 +16861,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54000</v>
@@ -16883,7 +16889,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55000</v>
@@ -16911,7 +16917,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56000</v>
@@ -16937,7 +16943,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57000</v>
@@ -16965,7 +16971,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58000</v>
@@ -16993,7 +16999,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>58500</v>
@@ -17019,7 +17025,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -17045,7 +17051,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>59500</v>
@@ -17073,7 +17079,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>60000</v>
@@ -17101,7 +17107,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>60500</v>
@@ -17129,7 +17135,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>61000</v>
@@ -17157,7 +17163,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>61500</v>
@@ -17183,7 +17189,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="1">+A67+B67</f>
         <v>62000</v>
@@ -17211,7 +17217,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>62500</v>
@@ -17237,7 +17243,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>63000</v>
@@ -17263,7 +17269,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>63500</v>
@@ -17289,7 +17295,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>64000</v>
@@ -17315,7 +17321,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>64500</v>
@@ -17343,7 +17349,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>65000</v>
@@ -17371,7 +17377,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>65500</v>
@@ -17399,7 +17405,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>66000</v>
@@ -17425,7 +17431,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>66500</v>
@@ -17451,7 +17457,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>67000</v>
@@ -17477,7 +17483,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -17503,7 +17509,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>68000</v>
@@ -17529,7 +17535,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>68500</v>
@@ -17555,7 +17561,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>69000</v>
@@ -17581,7 +17587,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>69500</v>
@@ -17607,7 +17613,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>70000</v>
@@ -17633,7 +17639,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>70500</v>
@@ -17659,7 +17665,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>71000</v>
@@ -17687,7 +17693,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>71500</v>
@@ -17715,7 +17721,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>72000</v>
@@ -17741,7 +17747,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>72500</v>
@@ -17767,7 +17773,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>73000</v>
@@ -17793,7 +17799,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>73500</v>
@@ -17819,7 +17825,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>74000</v>
@@ -17845,7 +17851,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>74500</v>
@@ -17875,7 +17881,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>75000</v>
@@ -17905,7 +17911,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>75500</v>
@@ -17933,7 +17939,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>76000</v>
@@ -17961,7 +17967,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>76500</v>
@@ -17989,7 +17995,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>77000</v>
@@ -18017,7 +18023,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>77500</v>
@@ -18043,7 +18049,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>78000</v>
@@ -18071,7 +18077,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>78500</v>
@@ -18097,7 +18103,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>79000</v>
@@ -18127,7 +18133,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>79500</v>
@@ -18153,7 +18159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>80000</v>
@@ -18179,7 +18185,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>80500</v>
@@ -18205,7 +18211,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>81000</v>
@@ -18233,7 +18239,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>81500</v>
@@ -18259,7 +18265,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>82000</v>
@@ -18285,7 +18291,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>82500</v>
@@ -18313,7 +18319,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>83000</v>
@@ -18341,7 +18347,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>83200</v>
@@ -18367,7 +18373,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>83400</v>
@@ -18395,7 +18401,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>83600</v>
@@ -18423,7 +18429,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>83800</v>
@@ -18451,7 +18457,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>84000</v>
@@ -18479,7 +18485,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>84200</v>
@@ -18505,7 +18511,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>84400</v>
@@ -18533,7 +18539,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>84600</v>
@@ -18561,7 +18567,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>84800</v>
@@ -18587,7 +18593,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>85000</v>
@@ -18613,7 +18619,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>85200</v>
@@ -18641,7 +18647,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>85400</v>
@@ -18667,7 +18673,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>85600</v>
@@ -18693,7 +18699,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>85800</v>
@@ -18723,7 +18729,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>86000</v>
@@ -18751,7 +18757,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>86200</v>
@@ -18779,7 +18785,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>86400</v>
@@ -18807,7 +18813,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>86600</v>
@@ -18835,7 +18841,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>86800</v>
@@ -18863,7 +18869,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>87000</v>
@@ -18891,7 +18897,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>87200</v>
@@ -18919,7 +18925,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132">
         <f t="shared" ref="A132:A167" si="2">+A131+B131</f>
         <v>87400</v>
@@ -18945,7 +18951,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>87600</v>
@@ -18971,7 +18977,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>87800</v>
@@ -18997,7 +19003,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>88000</v>
@@ -19023,7 +19029,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>88200</v>
@@ -19049,7 +19055,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>88400</v>
@@ -19075,7 +19081,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>88600</v>
@@ -19103,7 +19109,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>88800</v>
@@ -19131,7 +19137,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>89000</v>
@@ -19157,7 +19163,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>89200</v>
@@ -19183,7 +19189,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>89400</v>
@@ -19209,7 +19215,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>89600</v>
@@ -19235,7 +19241,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>89700</v>
@@ -19263,7 +19269,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>89800</v>
@@ -19291,7 +19297,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>89900</v>
@@ -19319,7 +19325,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>90000</v>
@@ -19347,7 +19353,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>90100</v>
@@ -19375,7 +19381,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>90200</v>
@@ -19403,7 +19409,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>90300</v>
@@ -19429,7 +19435,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>90400</v>
@@ -19455,7 +19461,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>90500</v>
@@ -19481,7 +19487,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>90600</v>
@@ -19511,7 +19517,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>90700</v>
@@ -19539,7 +19545,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>90800</v>
@@ -19567,7 +19573,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>90900</v>
@@ -19595,7 +19601,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>91000</v>
@@ -19621,7 +19627,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>91100</v>
@@ -19651,7 +19657,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>91200</v>
@@ -19679,7 +19685,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>91300</v>
@@ -19705,7 +19711,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>91400</v>
@@ -19731,7 +19737,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>91500</v>
@@ -19761,7 +19767,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>91600</v>
@@ -19791,7 +19797,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>91700</v>
@@ -19819,7 +19825,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>91800</v>
@@ -19849,7 +19855,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>91900</v>
@@ -19875,7 +19881,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>92000</v>
@@ -19903,24 +19909,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="51.140625" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="51.1796875" customWidth="1"/>
+    <col min="9" max="9" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>927</v>
       </c>
@@ -19949,7 +19955,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -19978,7 +19984,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f>+A2+B2</f>
         <v>1000</v>
@@ -20008,7 +20014,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" ref="A4:A40" si="0">+A3+B3</f>
         <v>2000</v>
@@ -20038,7 +20044,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2500</v>
@@ -20068,7 +20074,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>3000</v>
@@ -20098,7 +20104,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>3500</v>
@@ -20128,7 +20134,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>4000</v>
@@ -20158,7 +20164,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>4500</v>
@@ -20188,7 +20194,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>4700</v>
@@ -20218,7 +20224,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>4900</v>
@@ -20248,7 +20254,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>5100</v>
@@ -20276,7 +20282,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -20304,7 +20310,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>5500</v>
@@ -20334,7 +20340,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>5600</v>
@@ -20360,7 +20366,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>6600</v>
@@ -20386,7 +20392,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>7600</v>
@@ -20412,7 +20418,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>8600</v>
@@ -20442,7 +20448,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>9600</v>
@@ -20472,7 +20478,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>10600</v>
@@ -20502,7 +20508,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>11100</v>
@@ -20530,7 +20536,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>11600</v>
@@ -20558,7 +20564,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>12100</v>
@@ -20588,7 +20594,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>12600</v>
@@ -20618,7 +20624,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>13100</v>
@@ -20648,7 +20654,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>13600</v>
@@ -20678,7 +20684,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>14100</v>
@@ -20708,7 +20714,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>14600</v>
@@ -20738,7 +20744,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>14800</v>
@@ -20768,7 +20774,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -20794,7 +20800,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>16000</v>
@@ -20824,7 +20830,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>17000</v>
@@ -20852,7 +20858,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -20882,7 +20888,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>18000</v>
@@ -20910,7 +20916,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>18500</v>
@@ -20938,7 +20944,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>18700</v>
@@ -20966,7 +20972,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>18900</v>
@@ -20992,7 +20998,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>19100</v>
@@ -21022,7 +21028,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>19300</v>
@@ -21050,7 +21056,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>19400</v>
